--- a/masterdata.xlsx
+++ b/masterdata.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i022021/yoav/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6C3B6-4ABB-484A-831C-544482AA0A2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="19260" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
     <sheet name="Courses" sheetId="2" r:id="rId2"/>
     <sheet name="Instructors" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Instructors!$A$1:$C$78</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="235">
   <si>
     <t>שם מתקן</t>
   </si>
@@ -257,9 +254,6 @@
     <t>חד מתקדם א</t>
   </si>
   <si>
-    <t>חד מתקדם ב אקדח</t>
-  </si>
-  <si>
     <t>חד מתקדם ב רובה</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>הרצליה</t>
   </si>
   <si>
-    <t>חומה 4</t>
-  </si>
-  <si>
     <t>חומה 5</t>
   </si>
   <si>
@@ -365,24 +356,390 @@
     <t>יהודה</t>
   </si>
   <si>
+    <t>מדריך לחימה</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג</t>
+  </si>
+  <si>
+    <t>מדריך נהלים</t>
+  </si>
+  <si>
+    <t>מדריך סמכויות</t>
+  </si>
+  <si>
+    <t>פסיכולוג</t>
+  </si>
+  <si>
+    <t>חופן</t>
+  </si>
+  <si>
+    <t>דורון</t>
+  </si>
+  <si>
+    <t>דני</t>
+  </si>
+  <si>
+    <t>אופיר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">טל </t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך סמכויות</t>
+  </si>
+  <si>
+    <t>סער</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך סמכויות, מדריך נהלים</t>
+  </si>
+  <si>
+    <t>עמית</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך נהלים</t>
+  </si>
+  <si>
+    <t>אבי</t>
+  </si>
+  <si>
+    <t>תובל</t>
+  </si>
+  <si>
+    <t>איציק</t>
+  </si>
+  <si>
+    <t>מישל</t>
+  </si>
+  <si>
+    <t>מיכאל</t>
+  </si>
+  <si>
+    <t>אורן</t>
+  </si>
+  <si>
+    <t>תמיר</t>
+  </si>
+  <si>
+    <t>אנטון</t>
+  </si>
+  <si>
+    <t>אבי ג</t>
+  </si>
+  <si>
+    <t>עופר פ</t>
+  </si>
+  <si>
+    <t>ארתור</t>
+  </si>
+  <si>
+    <t>יוני</t>
+  </si>
+  <si>
+    <t>מוטי</t>
+  </si>
+  <si>
+    <t>ראובן</t>
+  </si>
+  <si>
+    <t>ברוך</t>
+  </si>
+  <si>
+    <t>אריק</t>
+  </si>
+  <si>
+    <t>עופר א</t>
+  </si>
+  <si>
+    <t>דניס</t>
+  </si>
+  <si>
+    <t>עודד</t>
+  </si>
+  <si>
+    <t>אבי ל</t>
+  </si>
+  <si>
+    <t>מאיר</t>
+  </si>
+  <si>
+    <t>טליה</t>
+  </si>
+  <si>
+    <t>אשר</t>
+  </si>
+  <si>
+    <t>אפרים</t>
+  </si>
+  <si>
+    <t>פול</t>
+  </si>
+  <si>
+    <t>הדי</t>
+  </si>
+  <si>
+    <t>מירי</t>
+  </si>
+  <si>
+    <t>רימון</t>
+  </si>
+  <si>
+    <t>עמרי</t>
+  </si>
+  <si>
+    <t>תום</t>
+  </si>
+  <si>
+    <t>אביתר</t>
+  </si>
+  <si>
+    <t>רוני</t>
+  </si>
+  <si>
+    <t>דימה</t>
+  </si>
+  <si>
+    <t>יואב</t>
+  </si>
+  <si>
+    <t>חומה 7</t>
+  </si>
+  <si>
+    <t>יבש בגג 1</t>
+  </si>
+  <si>
+    <t>יבש באמפי 1</t>
+  </si>
+  <si>
+    <t>יבש בגג 2</t>
+  </si>
+  <si>
+    <t>יבש בגג 3</t>
+  </si>
+  <si>
+    <t>יבש באמפי 2</t>
+  </si>
+  <si>
+    <t>יבש באמפי 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">טקטי </t>
+  </si>
+  <si>
+    <t>ריצה 3</t>
+  </si>
+  <si>
+    <t>ריצה 4</t>
+  </si>
+  <si>
+    <t>כיתה 4</t>
+  </si>
+  <si>
+    <t>כיתה 5</t>
+  </si>
+  <si>
+    <t>כיתה 6</t>
+  </si>
+  <si>
+    <t>חדר ישיבות</t>
+  </si>
+  <si>
+    <t>אולם אדום</t>
+  </si>
+  <si>
+    <t>אולם ירוק</t>
+  </si>
+  <si>
+    <t>אולם 10 מטר</t>
+  </si>
+  <si>
+    <t>קמ״ג</t>
+  </si>
+  <si>
+    <t>אוטובוס</t>
+  </si>
+  <si>
+    <t>רוזנמן עופר</t>
+  </si>
+  <si>
+    <t>טורג'מן דודו</t>
+  </si>
+  <si>
+    <t>גולדברג דוב</t>
+  </si>
+  <si>
+    <t>קדושה ירון</t>
+  </si>
+  <si>
+    <t>צ'רבצקי יורי</t>
+  </si>
+  <si>
+    <t>מטמון אבירם</t>
+  </si>
+  <si>
+    <t>הררי רועי</t>
+  </si>
+  <si>
+    <t>יסאיב מיכאל</t>
+  </si>
+  <si>
+    <t>חדד עידו</t>
+  </si>
+  <si>
+    <t>אברהם הראל</t>
+  </si>
+  <si>
+    <t>נאור אזולאי מקס</t>
+  </si>
+  <si>
+    <t>יחזקאל עידן</t>
+  </si>
+  <si>
+    <t>טל רוזנמן</t>
+  </si>
+  <si>
+    <t>דובי </t>
+  </si>
+  <si>
+    <t>שלומי דהן</t>
+  </si>
+  <si>
+    <t>אלי לנדס</t>
+  </si>
+  <si>
+    <t>תום ברנע</t>
+  </si>
+  <si>
+    <t>עידו וויטסון</t>
+  </si>
+  <si>
+    <t>אפרת גביש</t>
+  </si>
+  <si>
+    <t>גד מזרחי</t>
+  </si>
+  <si>
+    <t>עידו וויטסון 1</t>
+  </si>
+  <si>
+    <t>מירי ויינר</t>
+  </si>
+  <si>
+    <t>עידן קמרי</t>
+  </si>
+  <si>
+    <t>מדריך טקטי</t>
+  </si>
+  <si>
+    <t>מדריך ריצה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רענון משרד השיכון </t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 06/18</t>
+  </si>
+  <si>
+    <t>קורס שיכון 05/18</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 05/18</t>
+  </si>
+  <si>
+    <t>רענון מאבטחי רכבת</t>
+  </si>
+  <si>
+    <t>רענון סדרן ספורט</t>
+  </si>
+  <si>
+    <t>קליטה</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך נהלים, מדריך ריצה</t>
+  </si>
+  <si>
+    <t>בוזגלו</t>
+  </si>
+  <si>
+    <t>דודו</t>
+  </si>
+  <si>
+    <t>אלעד</t>
+  </si>
+  <si>
+    <t>קוסטה</t>
+  </si>
+  <si>
     <t>משה</t>
   </si>
   <si>
-    <t>מדריך קרב מגע, מדריך נהלים, מדריך לחימה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מדריך קרב מגע, מדריך מטווח, מדריך לחימה   </t>
+    <t>סטקלר</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג, מדריך לחימה, מדריך ריצה</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג, מדריך ריצה</t>
+  </si>
+  <si>
+    <t>דביר</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג, מדריך לחימה</t>
+  </si>
+  <si>
+    <t>סיוון</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג, מדריך נהלים, מדריך לחימה, מדריך ריצה</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך קמ"ג, מדריך ריצה</t>
+  </si>
+  <si>
+    <t>דובי</t>
+  </si>
+  <si>
+    <t>בן צבי</t>
+  </si>
+  <si>
+    <t>רענון משרד הרווחה</t>
+  </si>
+  <si>
+    <t>ליז</t>
+  </si>
+  <si>
+    <t>מדריך קליטה</t>
+  </si>
+  <si>
+    <t>חד מתקדם ב</t>
+  </si>
+  <si>
+    <t>הפסקה</t>
+  </si>
+  <si>
+    <t>בוחן כושר מיוחד</t>
+  </si>
+  <si>
+    <t>שב"ס</t>
+  </si>
+  <si>
+    <t>משמר בתי המשפט</t>
+  </si>
+  <si>
+    <t>לרנר</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +747,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -404,6 +761,28 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -443,12 +822,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,10 +840,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_ku" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,600 +1179,748 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="23" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
-        <v>106</v>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1371,407 +1930,1108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView rightToLeft="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>108</v>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B69:E72"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView rightToLeft="1" topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="72.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B40" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>113</v>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C78"/>
+  <sortState ref="A2:B43">
+    <sortCondition ref="B2:B43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/masterdata.xlsx
+++ b/masterdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10429"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i022021/yoav/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85207EE-0AA6-B044-8496-338F6B243518}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="19260" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Instructors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Instructors!$A$1:$C$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Instructors!$A$1:$C$79</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="322">
   <si>
     <t>שם מתקן</t>
   </si>
@@ -323,9 +329,6 @@
     <t>משטח יבש אולם</t>
   </si>
   <si>
-    <t>משטח יבש </t>
-  </si>
-  <si>
     <t>אולם ספורט</t>
   </si>
   <si>
@@ -383,15 +386,9 @@
     <t>אופיר</t>
   </si>
   <si>
-    <t xml:space="preserve">טל </t>
-  </si>
-  <si>
     <t>מדריך לחימה, מדריך סמכויות</t>
   </si>
   <si>
-    <t>סער</t>
-  </si>
-  <si>
     <t>מדריך לחימה, מדריך סמכויות, מדריך נהלים</t>
   </si>
   <si>
@@ -425,15 +422,9 @@
     <t>אנטון</t>
   </si>
   <si>
-    <t>אבי ג</t>
-  </si>
-  <si>
     <t>עופר פ</t>
   </si>
   <si>
-    <t>ארתור</t>
-  </si>
-  <si>
     <t>יוני</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
     <t>ראובן</t>
   </si>
   <si>
-    <t>ברוך</t>
-  </si>
-  <si>
     <t>אריק</t>
   </si>
   <si>
@@ -461,9 +449,6 @@
     <t>אבי ל</t>
   </si>
   <si>
-    <t>מאיר</t>
-  </si>
-  <si>
     <t>טליה</t>
   </si>
   <si>
@@ -560,39 +545,6 @@
     <t>אוטובוס</t>
   </si>
   <si>
-    <t>רוזנמן עופר</t>
-  </si>
-  <si>
-    <t>טורג'מן דודו</t>
-  </si>
-  <si>
-    <t>גולדברג דוב</t>
-  </si>
-  <si>
-    <t>קדושה ירון</t>
-  </si>
-  <si>
-    <t>צ'רבצקי יורי</t>
-  </si>
-  <si>
-    <t>מטמון אבירם</t>
-  </si>
-  <si>
-    <t>הררי רועי</t>
-  </si>
-  <si>
-    <t>יסאיב מיכאל</t>
-  </si>
-  <si>
-    <t>חדד עידו</t>
-  </si>
-  <si>
-    <t>אברהם הראל</t>
-  </si>
-  <si>
-    <t>נאור אזולאי מקס</t>
-  </si>
-  <si>
     <t>יחזקאל עידן</t>
   </si>
   <si>
@@ -656,15 +608,9 @@
     <t>קליטה</t>
   </si>
   <si>
-    <t>מדריך לחימה, מדריך נהלים, מדריך ריצה</t>
-  </si>
-  <si>
     <t>בוזגלו</t>
   </si>
   <si>
-    <t>דודו</t>
-  </si>
-  <si>
     <t>אלעד</t>
   </si>
   <si>
@@ -677,18 +623,9 @@
     <t>סטקלר</t>
   </si>
   <si>
-    <t>מדריך קמ"ג, מדריך לחימה, מדריך ריצה</t>
-  </si>
-  <si>
     <t>מדריך קמ"ג, מדריך ריצה</t>
   </si>
   <si>
-    <t>דביר</t>
-  </si>
-  <si>
-    <t>מדריך קמ"ג, מדריך לחימה</t>
-  </si>
-  <si>
     <t>סיוון</t>
   </si>
   <si>
@@ -698,9 +635,6 @@
     <t>מדריך לחימה, מדריך קמ"ג, מדריך ריצה</t>
   </si>
   <si>
-    <t>דובי</t>
-  </si>
-  <si>
     <t>בן צבי</t>
   </si>
   <si>
@@ -729,17 +663,350 @@
   </si>
   <si>
     <t>לרנר</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג, מדריך נהלים, מדריך לחימה, מדריך ריצה, מדריך טקטי</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך טקטי, מדריך נהלים</t>
+  </si>
+  <si>
+    <t>דב</t>
+  </si>
+  <si>
+    <t>אבי גולדברג</t>
+  </si>
+  <si>
+    <t>חד הגנש</t>
+  </si>
+  <si>
+    <t>בוחן כושר 1</t>
+  </si>
+  <si>
+    <t>בוחן כושר 2</t>
+  </si>
+  <si>
+    <t>בוחן כושר 3</t>
+  </si>
+  <si>
+    <t>בוחן כושר 4</t>
+  </si>
+  <si>
+    <t>משטח יבש 1</t>
+  </si>
+  <si>
+    <t>משטח יבש 2</t>
+  </si>
+  <si>
+    <t>משטח יבש 3</t>
+  </si>
+  <si>
+    <t>משטח יבש 4</t>
+  </si>
+  <si>
+    <t>ברוך קורוניו</t>
+  </si>
+  <si>
+    <t>חד בכיר</t>
+  </si>
+  <si>
+    <t>מפעל ראוי</t>
+  </si>
+  <si>
+    <t>מאיר ע</t>
+  </si>
+  <si>
+    <t>מנהל מטווח</t>
+  </si>
+  <si>
+    <t>מאיר צ</t>
+  </si>
+  <si>
+    <t>גוטמן</t>
+  </si>
+  <si>
+    <t>טל דביר</t>
+  </si>
+  <si>
+    <t>קורס בסיסי 0618</t>
+  </si>
+  <si>
+    <t>קורס בסיסי 0718</t>
+  </si>
+  <si>
+    <t>עזאם</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך טקטי, מדריך נהלים, מדריך ריצה</t>
+  </si>
+  <si>
+    <t>SBM</t>
+  </si>
+  <si>
+    <t>בוחן כושר</t>
+  </si>
+  <si>
+    <t>בוחן כושר השלמה</t>
+  </si>
+  <si>
+    <t>קורס בסיסי</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 0618</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 0718</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 0818</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 0918</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1018</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1118</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1218</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1318</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1418</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1518</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1618</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1718</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1818</t>
+  </si>
+  <si>
+    <t>קורס מאבטחי רכבת 1918</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 0518</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 0618</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 0718</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 0818</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 0918</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1018</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1118</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1218</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1318</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1418</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1518</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1618</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1718</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1818</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 1918</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2018</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2118</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2218</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2318</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2418</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2518</t>
+  </si>
+  <si>
+    <t>קורס משרד השיכון 2618</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 0618</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 0718</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 0818</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 0918</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1018</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1118</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1218</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1318</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1418</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1518</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1618</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1718</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1818</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 1918</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2018</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2118</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2218</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2318</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2418</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2518</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2618</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2718</t>
+  </si>
+  <si>
+    <t>קורס בודקים רכבת 2818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תלת מאויימים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רענון בודק בטחוני </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רענון בודקים רכבת </t>
+  </si>
+  <si>
+    <t>ארגומטריה</t>
+  </si>
+  <si>
+    <t>ירון קדושה</t>
+  </si>
+  <si>
+    <t>סער סלע</t>
+  </si>
+  <si>
+    <t>דביר אלימלך</t>
+  </si>
+  <si>
+    <t>עידו חדד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יורי צ'רבצקי </t>
+  </si>
+  <si>
+    <t>אבירם מטמון</t>
+  </si>
+  <si>
+    <t>רועי הררי</t>
+  </si>
+  <si>
+    <t>מיכאל יסאיב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עופר רוזנמן </t>
+  </si>
+  <si>
+    <t>דודו טורג'מן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הראל אברהם </t>
+  </si>
+  <si>
+    <t>מקס</t>
+  </si>
+  <si>
+    <t>ארוחה חגיגית</t>
+  </si>
+  <si>
+    <t>מדריך קמ"ג, מדריך לחימה, טקטי</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך נהלים, מדריך ריצה, מדריך טקטי</t>
+  </si>
+  <si>
+    <t>מדריך לחימה,א1,ב1</t>
+  </si>
+  <si>
+    <t>מדריך לחימה, מדריך ריצה,א1</t>
+  </si>
+  <si>
+    <t>מדריך לחימה,ב1</t>
+  </si>
+  <si>
+    <t>ארתור2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -747,7 +1014,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -786,8 +1053,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +1093,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -821,12 +1138,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,10 +1204,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_ku" xfId="1"/>
+    <cellStyle name="Normal_ku" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,22 +1544,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD26"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="4" customWidth="1"/>
@@ -1204,7 +1569,7 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1218,709 +1583,849 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D2" s="22"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="23"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="23"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="23"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D8" s="24"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="24"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="25"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D13" s="26"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D14" s="26"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" s="27"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D16" s="27"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="25"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="25"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="23"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="23"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D24" s="23"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="4" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B66" s="4" t="s">
-        <v>230</v>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1930,1105 +2435,1474 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView rightToLeft="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="11" customWidth="1"/>
     <col min="2" max="16384" width="10.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="10" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="10" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="10" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" s="10" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" s="10" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53" s="10" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" s="10" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56" s="10" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" s="10" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58" s="10" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59" s="10" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" s="10" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="10" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="10" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" s="10" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64" s="10" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="10" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="10" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="10" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="10" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" s="10" t="s">
-        <v>208</v>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="15" t="s">
-        <v>233</v>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B69:E72"/>
+    <mergeCell ref="B71:E74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView rightToLeft="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="4" t="s">
-        <v>212</v>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
-        <v>213</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
-        <v>219</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>228</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C78"/>
+  <autoFilter ref="A1:C79" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <sortState ref="A2:B43">
     <sortCondition ref="B2:B43"/>
   </sortState>
